--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.720400.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.720400.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C7337F3-E465-4A96-BAA4-00DF9C09D19C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8E8A41D-ABCF-4A5F-8B2E-4C5E136E995A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-18T060132.863" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-02-24T064708.974" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="131">
   <si>
     <t>Do Ty</t>
   </si>
@@ -332,6 +332,75 @@
   </si>
   <si>
     <t>H&amp;M INV 0040 QTY 115 PCS,0,07</t>
+  </si>
+  <si>
+    <t>SEJK2402A0025C01</t>
+  </si>
+  <si>
+    <t>ADIDAS INV 0047 QTY 381197 PCS</t>
+  </si>
+  <si>
+    <t>SEJK2402A0008C01</t>
+  </si>
+  <si>
+    <t>ADIDAS INV 0037 QTY 209011 PCS</t>
+  </si>
+  <si>
+    <t>CONTAINER ADIDAS 3X40HC INV 00</t>
+  </si>
+  <si>
+    <t>E832259537</t>
+  </si>
+  <si>
+    <t>H&amp;M INV 0039 QTY 315 PCS,0,174</t>
+  </si>
+  <si>
+    <t>E832262757</t>
+  </si>
+  <si>
+    <t>H&amp;M INV 0043 QTY 555 PCS, 0,31</t>
+  </si>
+  <si>
+    <t>E832262969</t>
+  </si>
+  <si>
+    <t>H&amp;M INV 0045 QTY 1065 PCS, 0,5</t>
+  </si>
+  <si>
+    <t>E832264796</t>
+  </si>
+  <si>
+    <t>H&amp;M INV 0044 QTY 4390 PCS, 2,2</t>
+  </si>
+  <si>
+    <t>E832264795</t>
+  </si>
+  <si>
+    <t>H&amp;M INV 0042 QTY 4980 PCS, 2,5</t>
+  </si>
+  <si>
+    <t>CONTAINER MIAYMORI 1X40 INV 00</t>
+  </si>
+  <si>
+    <t>CONTAINER ADIDAS 2X40 INV 0037</t>
+  </si>
+  <si>
+    <t>NPH MUSTIKA ALAM LESTARI</t>
+  </si>
+  <si>
+    <t>LOLO FEE ADIDAS INV 0047</t>
+  </si>
+  <si>
+    <t>PT HANDAL JAYA SERVICE</t>
+  </si>
+  <si>
+    <t>LOLO FEE MIYAMORI INV 0033</t>
+  </si>
+  <si>
+    <t>PT.BSA LOGISTICS INDONESIA</t>
+  </si>
+  <si>
+    <t>LOLO FEE CONTAINER ADIDAS 2X40</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1186,7 +1255,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ23"/>
+  <dimension ref="A1:AZ40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3763,68 +3832,2346 @@
       </c>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20">
+        <v>24002570</v>
+      </c>
+      <c r="D20">
+        <v>1204</v>
+      </c>
+      <c r="E20" s="1">
+        <v>45343</v>
+      </c>
       <c r="F20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20">
+        <v>868.63</v>
+      </c>
+      <c r="H20">
+        <v>868.63</v>
+      </c>
+      <c r="I20" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" t="s">
+        <v>55</v>
+      </c>
+      <c r="L20" s="2">
+        <v>13727000</v>
+      </c>
+      <c r="N20" s="2">
+        <v>13727000</v>
+      </c>
+      <c r="O20" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>56</v>
+      </c>
+      <c r="R20" t="s">
+        <v>57</v>
+      </c>
+      <c r="S20">
+        <v>15803</v>
+      </c>
+      <c r="T20" t="s">
+        <v>58</v>
+      </c>
+      <c r="U20" t="s">
+        <v>59</v>
+      </c>
+      <c r="V20" t="s">
+        <v>60</v>
+      </c>
+      <c r="W20" t="s">
+        <v>61</v>
+      </c>
+      <c r="X20">
+        <v>2104569</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG20">
+        <v>1</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI20">
+        <v>56579074</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL20" t="s">
         <v>104</v>
       </c>
-      <c r="G20" s="2">
-        <v>3143.46</v>
-      </c>
-      <c r="H20" s="2">
-        <v>3143.46</v>
-      </c>
-      <c r="L20" s="2">
-        <v>48748985</v>
-      </c>
-      <c r="N20" s="2">
-        <v>48748985</v>
-      </c>
-      <c r="AG20">
-        <v>18</v>
+      <c r="AM20" s="1">
+        <v>45332</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP20">
+        <v>1204</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX20">
+        <v>24001140</v>
+      </c>
+      <c r="AY20">
+        <v>720400</v>
+      </c>
+      <c r="AZ20">
+        <v>1204.7203999999999</v>
       </c>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21">
+        <v>24002571</v>
+      </c>
+      <c r="D21">
+        <v>1204</v>
+      </c>
+      <c r="E21" s="1">
+        <v>45343</v>
+      </c>
       <c r="F21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G21" s="2">
-        <v>3143.46</v>
-      </c>
-      <c r="H21" s="2">
-        <v>3143.46</v>
+        <v>54</v>
+      </c>
+      <c r="G21">
+        <v>0.63</v>
+      </c>
+      <c r="H21">
+        <v>0.63</v>
+      </c>
+      <c r="I21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" t="s">
+        <v>55</v>
       </c>
       <c r="L21" s="2">
-        <v>48748985</v>
+        <v>10000</v>
       </c>
       <c r="N21" s="2">
-        <v>48748985</v>
+        <v>10000</v>
+      </c>
+      <c r="O21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>56</v>
+      </c>
+      <c r="R21" t="s">
+        <v>57</v>
+      </c>
+      <c r="S21">
+        <v>15803</v>
+      </c>
+      <c r="T21" t="s">
+        <v>58</v>
+      </c>
+      <c r="U21" t="s">
+        <v>59</v>
+      </c>
+      <c r="V21" t="s">
+        <v>60</v>
+      </c>
+      <c r="W21" t="s">
+        <v>61</v>
+      </c>
+      <c r="X21">
+        <v>2104569</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>56</v>
       </c>
       <c r="AG21">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI21">
+        <v>56579074</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>45332</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP21">
+        <v>1204</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX21">
+        <v>24001140</v>
+      </c>
+      <c r="AY21">
+        <v>720400</v>
+      </c>
+      <c r="AZ21">
+        <v>1204.7203999999999</v>
       </c>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22">
+        <v>24002572</v>
+      </c>
+      <c r="D22">
+        <v>1204</v>
+      </c>
+      <c r="E22" s="1">
+        <v>45343</v>
+      </c>
       <c r="F22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22">
+        <v>572.92999999999995</v>
+      </c>
+      <c r="H22">
+        <v>572.92999999999995</v>
+      </c>
+      <c r="I22" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" t="s">
+        <v>55</v>
+      </c>
+      <c r="L22" s="2">
+        <v>9054040</v>
+      </c>
+      <c r="N22" s="2">
+        <v>9054040</v>
+      </c>
+      <c r="O22" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>56</v>
+      </c>
+      <c r="R22" t="s">
+        <v>57</v>
+      </c>
+      <c r="S22">
+        <v>15803</v>
+      </c>
+      <c r="T22" t="s">
+        <v>58</v>
+      </c>
+      <c r="U22" t="s">
+        <v>59</v>
+      </c>
+      <c r="V22" t="s">
+        <v>60</v>
+      </c>
+      <c r="W22" t="s">
+        <v>61</v>
+      </c>
+      <c r="X22">
+        <v>2104569</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG22">
+        <v>1</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI22">
+        <v>56579074</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL22" t="s">
         <v>106</v>
       </c>
-      <c r="G22" s="2">
-        <v>3143.46</v>
-      </c>
-      <c r="H22" s="2">
-        <v>3143.46</v>
-      </c>
-      <c r="L22" s="2">
-        <v>48748985</v>
-      </c>
-      <c r="N22" s="2">
-        <v>48748985</v>
-      </c>
-      <c r="AG22">
-        <v>18</v>
+      <c r="AM22" s="1">
+        <v>45323</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP22">
+        <v>1204</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>107</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX22">
+        <v>24001140</v>
+      </c>
+      <c r="AY22">
+        <v>720400</v>
+      </c>
+      <c r="AZ22">
+        <v>1204.7203999999999</v>
       </c>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23">
+        <v>24002573</v>
+      </c>
+      <c r="D23">
+        <v>1204</v>
+      </c>
+      <c r="E23" s="1">
+        <v>45343</v>
+      </c>
       <c r="F23" t="s">
-        <v>107</v>
+        <v>83</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1129.53</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1129.53</v>
+      </c>
+      <c r="I23" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" t="s">
+        <v>55</v>
+      </c>
+      <c r="L23" s="2">
+        <v>17850000</v>
+      </c>
+      <c r="N23" s="2">
+        <v>17850000</v>
+      </c>
+      <c r="O23" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>56</v>
+      </c>
+      <c r="R23" t="s">
+        <v>57</v>
+      </c>
+      <c r="S23">
+        <v>15803</v>
+      </c>
+      <c r="T23" t="s">
+        <v>58</v>
+      </c>
+      <c r="U23" t="s">
+        <v>59</v>
+      </c>
+      <c r="V23" t="s">
+        <v>60</v>
+      </c>
+      <c r="W23" t="s">
+        <v>61</v>
+      </c>
+      <c r="X23">
+        <v>2104587</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG23">
+        <v>1</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI23">
+        <v>57420938</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL23">
+        <v>116101</v>
+      </c>
+      <c r="AM23" s="1">
+        <v>45328</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP23">
+        <v>1204</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>108</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX23">
+        <v>24001135</v>
+      </c>
+      <c r="AY23">
+        <v>720400</v>
+      </c>
+      <c r="AZ23">
+        <v>1204.7203999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24">
+        <v>24002574</v>
+      </c>
+      <c r="D24">
+        <v>1204</v>
+      </c>
+      <c r="E24" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F24" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24">
+        <v>32.479999999999997</v>
+      </c>
+      <c r="H24">
+        <v>32.479999999999997</v>
+      </c>
+      <c r="I24" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24" t="s">
+        <v>55</v>
+      </c>
+      <c r="L24" s="2">
+        <v>512500</v>
+      </c>
+      <c r="N24" s="2">
+        <v>512500</v>
+      </c>
+      <c r="O24" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>56</v>
+      </c>
+      <c r="R24" t="s">
+        <v>57</v>
+      </c>
+      <c r="S24">
+        <v>15778</v>
+      </c>
+      <c r="T24" t="s">
+        <v>58</v>
+      </c>
+      <c r="U24" t="s">
+        <v>59</v>
+      </c>
+      <c r="V24" t="s">
+        <v>60</v>
+      </c>
+      <c r="W24" t="s">
+        <v>61</v>
+      </c>
+      <c r="X24">
+        <v>2104588</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG24">
+        <v>1</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI24">
+        <v>54000358</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM24" s="1">
+        <v>45329</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP24">
+        <v>1204</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>110</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX24">
+        <v>24001141</v>
+      </c>
+      <c r="AY24">
+        <v>720400</v>
+      </c>
+      <c r="AZ24">
+        <v>1204.7203999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25">
+        <v>24002575</v>
+      </c>
+      <c r="D25">
+        <v>1204</v>
+      </c>
+      <c r="E25" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25">
+        <v>32.479999999999997</v>
+      </c>
+      <c r="H25">
+        <v>32.479999999999997</v>
+      </c>
+      <c r="I25" t="s">
+        <v>55</v>
+      </c>
+      <c r="J25" t="s">
+        <v>55</v>
+      </c>
+      <c r="L25" s="2">
+        <v>512500</v>
+      </c>
+      <c r="N25" s="2">
+        <v>512500</v>
+      </c>
+      <c r="O25" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>56</v>
+      </c>
+      <c r="R25" t="s">
+        <v>57</v>
+      </c>
+      <c r="S25">
+        <v>15778</v>
+      </c>
+      <c r="T25" t="s">
+        <v>58</v>
+      </c>
+      <c r="U25" t="s">
+        <v>59</v>
+      </c>
+      <c r="V25" t="s">
+        <v>60</v>
+      </c>
+      <c r="W25" t="s">
+        <v>61</v>
+      </c>
+      <c r="X25">
+        <v>2104588</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG25">
+        <v>1</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI25">
+        <v>54000358</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM25" s="1">
+        <v>45329</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP25">
+        <v>1204</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX25">
+        <v>24001141</v>
+      </c>
+      <c r="AY25">
+        <v>720400</v>
+      </c>
+      <c r="AZ25">
+        <v>1204.7203999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26">
+        <v>24002576</v>
+      </c>
+      <c r="D26">
+        <v>1204</v>
+      </c>
+      <c r="E26" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26">
+        <v>32.479999999999997</v>
+      </c>
+      <c r="H26">
+        <v>32.479999999999997</v>
+      </c>
+      <c r="I26" t="s">
+        <v>55</v>
+      </c>
+      <c r="J26" t="s">
+        <v>55</v>
+      </c>
+      <c r="L26" s="2">
+        <v>512500</v>
+      </c>
+      <c r="N26" s="2">
+        <v>512500</v>
+      </c>
+      <c r="O26" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>56</v>
+      </c>
+      <c r="R26" t="s">
+        <v>57</v>
+      </c>
+      <c r="S26">
+        <v>15778</v>
+      </c>
+      <c r="T26" t="s">
+        <v>58</v>
+      </c>
+      <c r="U26" t="s">
+        <v>59</v>
+      </c>
+      <c r="V26" t="s">
+        <v>60</v>
+      </c>
+      <c r="W26" t="s">
+        <v>61</v>
+      </c>
+      <c r="X26">
+        <v>2104588</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA26">
+        <v>1</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG26">
+        <v>1</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI26">
+        <v>54000358</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM26" s="1">
+        <v>45329</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP26">
+        <v>1204</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>114</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX26">
+        <v>24001141</v>
+      </c>
+      <c r="AY26">
+        <v>720400</v>
+      </c>
+      <c r="AZ26">
+        <v>1204.7203999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27">
+        <v>24002577</v>
+      </c>
+      <c r="D27">
+        <v>1204</v>
+      </c>
+      <c r="E27" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F27" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27">
+        <v>53.76</v>
+      </c>
+      <c r="H27">
+        <v>53.76</v>
+      </c>
+      <c r="I27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" t="s">
+        <v>55</v>
+      </c>
+      <c r="L27" s="2">
+        <v>848238</v>
+      </c>
+      <c r="N27" s="2">
+        <v>848238</v>
+      </c>
+      <c r="O27" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>56</v>
+      </c>
+      <c r="R27" t="s">
+        <v>57</v>
+      </c>
+      <c r="S27">
+        <v>15778</v>
+      </c>
+      <c r="T27" t="s">
+        <v>58</v>
+      </c>
+      <c r="U27" t="s">
+        <v>59</v>
+      </c>
+      <c r="V27" t="s">
+        <v>60</v>
+      </c>
+      <c r="W27" t="s">
+        <v>61</v>
+      </c>
+      <c r="X27">
+        <v>2104588</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA27">
+        <v>1</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG27">
+        <v>1</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI27">
+        <v>54000358</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM27" s="1">
+        <v>45329</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP27">
+        <v>1204</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX27">
+        <v>24001141</v>
+      </c>
+      <c r="AY27">
+        <v>720400</v>
+      </c>
+      <c r="AZ27">
+        <v>1204.7203999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28">
+        <v>24002578</v>
+      </c>
+      <c r="D28">
+        <v>1204</v>
+      </c>
+      <c r="E28" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F28" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28">
+        <v>58.69</v>
+      </c>
+      <c r="H28">
+        <v>58.69</v>
+      </c>
+      <c r="I28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J28" t="s">
+        <v>55</v>
+      </c>
+      <c r="L28" s="2">
+        <v>925938</v>
+      </c>
+      <c r="N28" s="2">
+        <v>925938</v>
+      </c>
+      <c r="O28" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>56</v>
+      </c>
+      <c r="R28" t="s">
+        <v>57</v>
+      </c>
+      <c r="S28">
+        <v>15778</v>
+      </c>
+      <c r="T28" t="s">
+        <v>58</v>
+      </c>
+      <c r="U28" t="s">
+        <v>59</v>
+      </c>
+      <c r="V28" t="s">
+        <v>60</v>
+      </c>
+      <c r="W28" t="s">
+        <v>61</v>
+      </c>
+      <c r="X28">
+        <v>2104588</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA28">
+        <v>1</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG28">
+        <v>1</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI28">
+        <v>54000358</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM28" s="1">
+        <v>45329</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP28">
+        <v>1204</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>118</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX28">
+        <v>24001141</v>
+      </c>
+      <c r="AY28">
+        <v>720400</v>
+      </c>
+      <c r="AZ28">
+        <v>1204.7203999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29">
+        <v>24002579</v>
+      </c>
+      <c r="D29">
+        <v>1204</v>
+      </c>
+      <c r="E29" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F29" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29">
+        <v>376.51</v>
+      </c>
+      <c r="H29">
+        <v>376.51</v>
+      </c>
+      <c r="I29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+      <c r="L29" s="2">
+        <v>5950000</v>
+      </c>
+      <c r="N29" s="2">
+        <v>5950000</v>
+      </c>
+      <c r="O29" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>56</v>
+      </c>
+      <c r="R29" t="s">
+        <v>57</v>
+      </c>
+      <c r="S29">
+        <v>15803</v>
+      </c>
+      <c r="T29" t="s">
+        <v>58</v>
+      </c>
+      <c r="U29" t="s">
+        <v>59</v>
+      </c>
+      <c r="V29" t="s">
+        <v>60</v>
+      </c>
+      <c r="W29" t="s">
+        <v>61</v>
+      </c>
+      <c r="X29">
+        <v>2104587</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA29">
+        <v>1</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG29">
+        <v>1</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI29">
+        <v>57420938</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL29">
+        <v>116001</v>
+      </c>
+      <c r="AM29" s="1">
+        <v>45323</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP29">
+        <v>1204</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>119</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX29">
+        <v>24001135</v>
+      </c>
+      <c r="AY29">
+        <v>720400</v>
+      </c>
+      <c r="AZ29">
+        <v>1204.7203999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30">
+        <v>24002580</v>
+      </c>
+      <c r="D30">
+        <v>1204</v>
+      </c>
+      <c r="E30" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F30" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30">
+        <v>753.02</v>
+      </c>
+      <c r="H30">
+        <v>753.02</v>
+      </c>
+      <c r="I30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J30" t="s">
+        <v>55</v>
+      </c>
+      <c r="L30" s="2">
+        <v>11900000</v>
+      </c>
+      <c r="N30" s="2">
+        <v>11900000</v>
+      </c>
+      <c r="O30" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>56</v>
+      </c>
+      <c r="R30" t="s">
+        <v>57</v>
+      </c>
+      <c r="S30">
+        <v>15803</v>
+      </c>
+      <c r="T30" t="s">
+        <v>58</v>
+      </c>
+      <c r="U30" t="s">
+        <v>59</v>
+      </c>
+      <c r="V30" t="s">
+        <v>60</v>
+      </c>
+      <c r="W30" t="s">
+        <v>61</v>
+      </c>
+      <c r="X30">
+        <v>2104587</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA30">
+        <v>1</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG30">
+        <v>1</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI30">
+        <v>57420938</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL30">
+        <v>115987</v>
+      </c>
+      <c r="AM30" s="1">
+        <v>45323</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP30">
+        <v>1204</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX30">
+        <v>24001135</v>
+      </c>
+      <c r="AY30">
+        <v>720400</v>
+      </c>
+      <c r="AZ30">
+        <v>1204.7203999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31">
+        <v>24002581</v>
+      </c>
+      <c r="D31">
+        <v>1204</v>
+      </c>
+      <c r="E31" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F31" t="s">
+        <v>121</v>
+      </c>
+      <c r="G31">
+        <v>115.47</v>
+      </c>
+      <c r="H31">
+        <v>115.47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>55</v>
+      </c>
+      <c r="J31" t="s">
+        <v>55</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1824750</v>
+      </c>
+      <c r="N31" s="2">
+        <v>1824750</v>
+      </c>
+      <c r="O31" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>56</v>
+      </c>
+      <c r="R31" t="s">
+        <v>57</v>
+      </c>
+      <c r="S31">
+        <v>15803</v>
+      </c>
+      <c r="T31" t="s">
+        <v>58</v>
+      </c>
+      <c r="U31" t="s">
+        <v>59</v>
+      </c>
+      <c r="V31" t="s">
+        <v>60</v>
+      </c>
+      <c r="W31" t="s">
+        <v>61</v>
+      </c>
+      <c r="X31">
+        <v>2104591</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA31">
+        <v>1</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG31">
+        <v>1</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI31">
+        <v>57369301</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL31">
+        <v>116126</v>
+      </c>
+      <c r="AM31" s="1">
+        <v>45328</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP31">
+        <v>1204</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX31">
+        <v>24001136</v>
+      </c>
+      <c r="AY31">
+        <v>720400</v>
+      </c>
+      <c r="AZ31">
+        <v>1204.7203999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32">
+        <v>24002582</v>
+      </c>
+      <c r="D32">
+        <v>1204</v>
+      </c>
+      <c r="E32" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F32" t="s">
+        <v>123</v>
+      </c>
+      <c r="G32">
+        <v>142.38</v>
+      </c>
+      <c r="H32">
+        <v>142.38</v>
+      </c>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+      <c r="J32" t="s">
+        <v>55</v>
+      </c>
+      <c r="L32" s="2">
+        <v>2250000</v>
+      </c>
+      <c r="N32" s="2">
+        <v>2250000</v>
+      </c>
+      <c r="O32" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>56</v>
+      </c>
+      <c r="R32" t="s">
+        <v>57</v>
+      </c>
+      <c r="S32">
+        <v>15803</v>
+      </c>
+      <c r="T32" t="s">
+        <v>58</v>
+      </c>
+      <c r="U32" t="s">
+        <v>59</v>
+      </c>
+      <c r="V32" t="s">
+        <v>60</v>
+      </c>
+      <c r="W32" t="s">
+        <v>61</v>
+      </c>
+      <c r="X32">
+        <v>2104591</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA32">
+        <v>1</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG32">
+        <v>1</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI32">
+        <v>57309391</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL32">
+        <v>116126</v>
+      </c>
+      <c r="AM32" s="1">
+        <v>45328</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP32">
+        <v>1204</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX32">
+        <v>24001137</v>
+      </c>
+      <c r="AY32">
+        <v>720400</v>
+      </c>
+      <c r="AZ32">
+        <v>1204.7203999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33">
+        <v>24002583</v>
+      </c>
+      <c r="D33">
+        <v>1204</v>
+      </c>
+      <c r="E33" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F33" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33">
+        <v>43.49</v>
+      </c>
+      <c r="H33">
+        <v>43.49</v>
+      </c>
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+      <c r="J33" t="s">
+        <v>55</v>
+      </c>
+      <c r="L33" s="2">
+        <v>687341</v>
+      </c>
+      <c r="N33" s="2">
+        <v>687341</v>
+      </c>
+      <c r="O33" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>56</v>
+      </c>
+      <c r="R33" t="s">
+        <v>57</v>
+      </c>
+      <c r="S33">
+        <v>15803</v>
+      </c>
+      <c r="T33" t="s">
+        <v>58</v>
+      </c>
+      <c r="U33" t="s">
+        <v>59</v>
+      </c>
+      <c r="V33" t="s">
+        <v>60</v>
+      </c>
+      <c r="W33" t="s">
+        <v>61</v>
+      </c>
+      <c r="X33">
+        <v>2104591</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA33">
+        <v>1</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG33">
+        <v>1</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI33">
+        <v>55113299</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL33">
+        <v>116088</v>
+      </c>
+      <c r="AM33" s="1">
+        <v>45323</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP33">
+        <v>1204</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX33">
+        <v>24001138</v>
+      </c>
+      <c r="AY33">
+        <v>720400</v>
+      </c>
+      <c r="AZ33">
+        <v>1204.7203999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34">
+        <v>24002584</v>
+      </c>
+      <c r="D34">
+        <v>1204</v>
+      </c>
+      <c r="E34" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G34">
+        <v>37.97</v>
+      </c>
+      <c r="H34">
+        <v>37.97</v>
+      </c>
+      <c r="I34" t="s">
+        <v>55</v>
+      </c>
+      <c r="J34" t="s">
+        <v>55</v>
+      </c>
+      <c r="L34" s="2">
+        <v>600000</v>
+      </c>
+      <c r="N34" s="2">
+        <v>600000</v>
+      </c>
+      <c r="O34" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>56</v>
+      </c>
+      <c r="R34" t="s">
+        <v>57</v>
+      </c>
+      <c r="S34">
+        <v>15803</v>
+      </c>
+      <c r="T34" t="s">
+        <v>58</v>
+      </c>
+      <c r="U34" t="s">
+        <v>59</v>
+      </c>
+      <c r="V34" t="s">
+        <v>60</v>
+      </c>
+      <c r="W34" t="s">
+        <v>61</v>
+      </c>
+      <c r="X34">
+        <v>2104591</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA34">
+        <v>1</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG34">
+        <v>1</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI34">
+        <v>57361165</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL34">
+        <v>118088</v>
+      </c>
+      <c r="AM34" s="1">
+        <v>45323</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP34">
+        <v>1204</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX34">
+        <v>24001139</v>
+      </c>
+      <c r="AY34">
+        <v>720400</v>
+      </c>
+      <c r="AZ34">
+        <v>1204.7203999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35">
+        <v>24002585</v>
+      </c>
+      <c r="D35">
+        <v>1204</v>
+      </c>
+      <c r="E35" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F35" t="s">
+        <v>86</v>
+      </c>
+      <c r="G35">
+        <v>85.72</v>
+      </c>
+      <c r="H35">
+        <v>85.72</v>
+      </c>
+      <c r="I35" t="s">
+        <v>55</v>
+      </c>
+      <c r="J35" t="s">
+        <v>55</v>
+      </c>
+      <c r="L35" s="2">
+        <v>1354682</v>
+      </c>
+      <c r="N35" s="2">
+        <v>1354682</v>
+      </c>
+      <c r="O35" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>56</v>
+      </c>
+      <c r="R35" t="s">
+        <v>57</v>
+      </c>
+      <c r="S35">
+        <v>15803</v>
+      </c>
+      <c r="T35" t="s">
+        <v>58</v>
+      </c>
+      <c r="U35" t="s">
+        <v>59</v>
+      </c>
+      <c r="V35" t="s">
+        <v>60</v>
+      </c>
+      <c r="W35" t="s">
+        <v>61</v>
+      </c>
+      <c r="X35">
+        <v>2104591</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA35">
+        <v>1</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG35">
+        <v>1</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI35">
+        <v>55113299</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL35">
+        <v>116087</v>
+      </c>
+      <c r="AM35" s="1">
+        <v>45323</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP35">
+        <v>1204</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV35" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX35">
+        <v>24001138</v>
+      </c>
+      <c r="AY35">
+        <v>720400</v>
+      </c>
+      <c r="AZ35">
+        <v>1204.7203999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36">
+        <v>24002586</v>
+      </c>
+      <c r="D36">
+        <v>1204</v>
+      </c>
+      <c r="E36" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F36" t="s">
+        <v>125</v>
+      </c>
+      <c r="G36">
+        <v>75.930000000000007</v>
+      </c>
+      <c r="H36">
+        <v>75.930000000000007</v>
+      </c>
+      <c r="I36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J36" t="s">
+        <v>55</v>
+      </c>
+      <c r="L36" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="N36" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="O36" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>56</v>
+      </c>
+      <c r="R36" t="s">
+        <v>57</v>
+      </c>
+      <c r="S36">
+        <v>15803</v>
+      </c>
+      <c r="T36" t="s">
+        <v>58</v>
+      </c>
+      <c r="U36" t="s">
+        <v>59</v>
+      </c>
+      <c r="V36" t="s">
+        <v>60</v>
+      </c>
+      <c r="W36" t="s">
+        <v>61</v>
+      </c>
+      <c r="X36">
+        <v>2104591</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA36">
+        <v>1</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG36">
+        <v>1</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI36">
+        <v>57361165</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL36">
+        <v>116087</v>
+      </c>
+      <c r="AM36" s="1">
+        <v>45323</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP36">
+        <v>1204</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX36">
+        <v>24001139</v>
+      </c>
+      <c r="AY36">
+        <v>720400</v>
+      </c>
+      <c r="AZ36">
+        <v>1204.7203999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>127</v>
+      </c>
+      <c r="G37" s="2">
+        <v>7555.56</v>
+      </c>
+      <c r="H37" s="2">
+        <v>7555.56</v>
+      </c>
+      <c r="L37" s="2">
+        <v>118468474</v>
+      </c>
+      <c r="N37" s="2">
+        <v>118468474</v>
+      </c>
+      <c r="AG37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>128</v>
+      </c>
+      <c r="G38" s="2">
+        <v>7555.56</v>
+      </c>
+      <c r="H38" s="2">
+        <v>7555.56</v>
+      </c>
+      <c r="L38" s="2">
+        <v>118468474</v>
+      </c>
+      <c r="N38" s="2">
+        <v>118468474</v>
+      </c>
+      <c r="AG38">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>129</v>
+      </c>
+      <c r="G39" s="2">
+        <v>7555.56</v>
+      </c>
+      <c r="H39" s="2">
+        <v>7555.56</v>
+      </c>
+      <c r="L39" s="2">
+        <v>118468474</v>
+      </c>
+      <c r="N39" s="2">
+        <v>118468474</v>
+      </c>
+      <c r="AG39">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.720400.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.720400.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8E8A41D-ABCF-4A5F-8B2E-4C5E136E995A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEA4CFA3-5BD0-4649-A6D2-4E700B6A0508}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-24T064708.974" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-03-03T065028.509" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
